--- a/Security Health Model - csage.xlsx
+++ b/Security Health Model - csage.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csage/Documents/GitHub/showmethemoney/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43468512-A760-C84E-80FC-2486609CDDDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519756F-9845-3B48-AB77-F50526734BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Security Health - Overview" sheetId="3" r:id="rId1"/>
-    <sheet name="Health Assessment Overviw" sheetId="5" r:id="rId2"/>
-    <sheet name="Health Assessment Questions" sheetId="4" r:id="rId3"/>
+    <sheet name="Security Health Model" sheetId="8" r:id="rId1"/>
+    <sheet name="Security Health Model Explained" sheetId="3" r:id="rId2"/>
+    <sheet name="Health Assessment Overview" sheetId="7" r:id="rId3"/>
+    <sheet name="Health Assessment Questions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
@@ -526,118 +527,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Carlota Sage</author>
-  </authors>
-  <commentList>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{2193B6F7-3F44-6641-B101-528F59D95C8D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Carlota Sage:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ensure the tools (technical and non-technical) in use are keeping your cybersecurity team aware and up-to-date with the changing threat landscape for your business, your industry, and informaton security in general.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{54F4B1CE-6760-F045-87BE-7610E90CDDAB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carlota Sage:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>How your team identifies and deals with weirdness in your environment, including practice runs, documentation and, when appropriate, engaging law enforcement or the security community at large.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{5A82E1F4-4062-D24F-BB88-762AB400F2B9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carlota Sage:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Your organization shouldn't only hear from Security when something goes wrong; effectively communicating what you do to the different audiences within your organization will increase your overall security posture.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Organizational Awareness</t>
   </si>
@@ -648,54 +539,15 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Cross-functional Relationships</t>
-  </si>
-  <si>
-    <t>Business Alignment</t>
-  </si>
-  <si>
-    <t>What Security needs to know about the Business</t>
-  </si>
-  <si>
     <t>Awareness &amp; Training</t>
   </si>
   <si>
-    <t>What the Business needs to know about Security</t>
-  </si>
-  <si>
     <t>Compliance &amp; Audit</t>
   </si>
   <si>
-    <t>What Business and Security need to know about Regulations</t>
-  </si>
-  <si>
-    <t>How Security supports and interacts with the Business</t>
-  </si>
-  <si>
-    <t>What Security needs to know about external risk</t>
-  </si>
-  <si>
     <t>Incident Response</t>
   </si>
   <si>
-    <t>How Security responds to immediate threats</t>
-  </si>
-  <si>
-    <t>Partner Relationships</t>
-  </si>
-  <si>
-    <t>How Security interacts with external Partners</t>
-  </si>
-  <si>
-    <t>Customer Relationships</t>
-  </si>
-  <si>
-    <t>How Security interacts with external Customers</t>
-  </si>
-  <si>
-    <t>How Security presents itself to the public at large</t>
-  </si>
-  <si>
     <t>LEGEND</t>
   </si>
   <si>
@@ -720,42 +572,12 @@
     <t>[Risk-Based, Optimized] 5</t>
   </si>
   <si>
-    <t>Security leadership needs understand how the mission &amp; goals of each BU support the overall organization</t>
-  </si>
-  <si>
-    <t>Compliance shouldn't stand alone; tie it to organizational goals and initiatives.</t>
-  </si>
-  <si>
-    <t>&lt; Example business units; add or remove as needed</t>
-  </si>
-  <si>
-    <t>Determine operational and organizational metrics - the metrics you need to function daily vs. the metrics that demonstrate security's role in achieving organizational goals.</t>
-  </si>
-  <si>
-    <t>How your team identifies and deals with weirdness in your environment, including practice runs, documentation and, when appropriate, engaging law enforcement or the security community at large.</t>
-  </si>
-  <si>
-    <t>Security should understand and have insight into 3rd Party Relationships, whether they're product integrations or vendor platforms.</t>
-  </si>
-  <si>
-    <t>Security should understand the organization's customer base, their needs and how the organization's products/services serve them. Security should be visible/accessible outside of a major incident.</t>
-  </si>
-  <si>
-    <t>How the cybersecurity team addresses security concerns from the general public (social media, good summaritan reporting, news items); participation in bug bounties; visibility within the organization's industry or the security industry.</t>
-  </si>
-  <si>
-    <t>Awareness &amp; Training should be tailored to each specific business unit. Your finance department should be especially aware of phishing and have a direct contact in the security org, for example, but doesn't need to study for the CISSP…</t>
-  </si>
-  <si>
     <t>Communication Strategy</t>
   </si>
   <si>
     <t>Asset Management</t>
   </si>
   <si>
-    <t>How Security communicates what's happening</t>
-  </si>
-  <si>
     <t>Emerging Threats &amp; Vulnerability Mgmt</t>
   </si>
   <si>
@@ -765,33 +587,6 @@
     <t>Cybersecurity Operations</t>
   </si>
   <si>
-    <t>What Security needs to secure</t>
-  </si>
-  <si>
-    <t>How Security monitors assets and environments</t>
-  </si>
-  <si>
-    <t>Public Relations &amp; Crisis Communications</t>
-  </si>
-  <si>
-    <t>Program Management</t>
-  </si>
-  <si>
-    <t>Ensure the tools (technical and non-technical) in use are keeping your cybersecurity team aware and up-to-date with the changing threat landscape for your business, your industry, and informaton security in general.</t>
-  </si>
-  <si>
-    <t>While you may not always know what's in your environment, good security hygiene starts with good asset management. Catalogue hardware, software, cloud platforms, devices and data assets on a regular basis, if not continously.</t>
-  </si>
-  <si>
-    <t>Your organization shouldn't only hear from Security when something goes wrong. Ensure your cybersecurity team is included in the business' RACI matrices, invited into project discussions early, and that cybersecurity is a key stakeholder in business continuity and disaster recovery plans.</t>
-  </si>
-  <si>
-    <t>Effectively communicating what you do to the different audiences within your organization will increase your overall security posture.</t>
-  </si>
-  <si>
-    <t>Implement and monitor security controls; establish environmental baseline. Develop detection methods for common/known threats and review detected threats.</t>
-  </si>
-  <si>
     <t>Risk-Based</t>
   </si>
   <si>
@@ -807,9 +602,6 @@
     <t>Security seen as a “technical problem”</t>
   </si>
   <si>
-    <t>Security seen as “compliance problem”</t>
-  </si>
-  <si>
     <t>Security seen as core to enabling the business</t>
   </si>
   <si>
@@ -823,9 +615,6 @@
   </si>
   <si>
     <t>No central cybersecurity ownership or leader</t>
-  </si>
-  <si>
-    <t>Security leadership exists in a silo focused on compliance</t>
   </si>
   <si>
     <t>Security leadership enabled by and has direct access to C-Suite, Board</t>
@@ -847,90 +636,12 @@
     <t>Identity &amp; Access Management</t>
   </si>
   <si>
-    <t>Who Security Manages</t>
-  </si>
-  <si>
     <t>[Grassroots] 2</t>
   </si>
   <si>
     <t>[Team or Compliance-driven] 3</t>
   </si>
   <si>
-    <t>Organizational Needs</t>
-  </si>
-  <si>
-    <t>Are security expectations/requirements documented and easily accessible to the team?</t>
-  </si>
-  <si>
-    <t>Are the documented security requirements reviewed and updated regularly? If so, how often?</t>
-  </si>
-  <si>
-    <t>Have the documented security requirements been shared with any component suppliers?</t>
-  </si>
-  <si>
-    <t>Have developers been trained/certified in secure development practices?</t>
-  </si>
-  <si>
-    <t>Are team best practices documented, shared and updated regularly?</t>
-  </si>
-  <si>
-    <t>Does the team stay current with changes to secure development practices? If yes, how?</t>
-  </si>
-  <si>
-    <t>Are organizational compliance and regulatory drivers documented and understood by the development team?</t>
-  </si>
-  <si>
-    <t>Are compliance-specific application requirements documented and reviewed regularly?</t>
-  </si>
-  <si>
-    <t>Are compliance-specific testing guidelines documented and reviewed regularly?</t>
-  </si>
-  <si>
-    <t>Communication &amp; Change Management</t>
-  </si>
-  <si>
-    <t>Is there a documented process for communicating business, compliance and industry changes to development leadership and application developers?</t>
-  </si>
-  <si>
-    <t>Security Operations</t>
-  </si>
-  <si>
-    <t>Does the security team have insight into how application team functions?</t>
-  </si>
-  <si>
-    <t>Does the security team regularly meet with the application development team(s) to ensure they are aligned?</t>
-  </si>
-  <si>
-    <t>Asset and Vendor Management</t>
-  </si>
-  <si>
-    <t>Does the security team have insight to the data assets generated or processed by the applications being developed?</t>
-  </si>
-  <si>
-    <t>Does the security team have insight to vendors used for application infrastructure, tooling, operations or components?</t>
-  </si>
-  <si>
-    <t>Does the security team have access to monitoring and logs of application assets and environments?</t>
-  </si>
-  <si>
-    <t>Does the security team have insight to vulnerability management and remediation within the application and application environments?</t>
-  </si>
-  <si>
-    <t>Is there a documented and shared defintiion of "an incident?"</t>
-  </si>
-  <si>
-    <t>Does the application team know when and how to engage security for an incident?</t>
-  </si>
-  <si>
-    <t>Can the security team quickly reach developers when an incident happens outside of business hours?</t>
-  </si>
-  <si>
-    <t>Is there a documented process for when and how to communicate incidents both interally and externally?</t>
-  </si>
-  <si>
-    <t>External Relationships (Optional)</t>
-  </si>
-  <si>
     <t>IT Ops</t>
   </si>
   <si>
@@ -940,9 +651,6 @@
     <t>Production/Product</t>
   </si>
   <si>
-    <t>Individuals or individual teams may take responsibility for security in their areas</t>
-  </si>
-  <si>
     <t>Government regulations or customer expectations drive security measures</t>
   </si>
   <si>
@@ -953,13 +661,139 @@
   </si>
   <si>
     <t>Questions or feedback about this model? Ping @carlotasage or csage@pocket-ciso.com. - My heartfelt thanks to my all the security professionals who have given the feedback that has improved this model over time!</t>
+  </si>
+  <si>
+    <t>Do you do it?</t>
+  </si>
+  <si>
+    <t>Is it documented?</t>
+  </si>
+  <si>
+    <t>Is it scalable?</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Cybersecurity Program Management</t>
+  </si>
+  <si>
+    <t>Vendor Management</t>
+  </si>
+  <si>
+    <t>Third Party Code &amp; Tool Management</t>
+  </si>
+  <si>
+    <t>How the organization overall assesses and manages risk, and how cybersecurity supports/fits into organizational risk management</t>
+  </si>
+  <si>
+    <t>How the organization complies with regulatory requirements and implements best practices for ensuring the privacy of employee and customer information</t>
+  </si>
+  <si>
+    <t>What the organization needs to know about global, federal, state and local regulations and industry/voluntarily compliance frameworks</t>
+  </si>
+  <si>
+    <t>The policies and functional guidelines governing the organization's business practices, and how cybersecurity supports them.</t>
+  </si>
+  <si>
+    <t>How the organization selects and manages vendors, and what they need to understand about risk introduced by vendor practices and technology</t>
+  </si>
+  <si>
+    <t>How the organization keeps employees informed and updated on the cybersecurity information they need to best protect themselves and their customers.</t>
+  </si>
+  <si>
+    <t>How employee, developer, partner and customer IDs are created, managed and reviewed.</t>
+  </si>
+  <si>
+    <t>How an organization manages, tracks, updates, and secures code and tools not developed internally</t>
+  </si>
+  <si>
+    <t>How an organization creates, takes in, discovers, manages and protects hardware, software, data, and internally-developed tooling</t>
+  </si>
+  <si>
+    <t>How an organization monitors assets, environments and vendors or 3rd parties for authorized and unauthoried access or potentially malicious behavior.</t>
+  </si>
+  <si>
+    <t>Vulnerability Management</t>
+  </si>
+  <si>
+    <t>How an orgnaization takes in information about potential threats to itself, its industry or its customers.</t>
+  </si>
+  <si>
+    <t>How an organization prepares for, responds to, and learns from a perceived or actual cybersecurity threat to its environment</t>
+  </si>
+  <si>
+    <t>How an organization communicates its cybersecurity strategy to partners, prospects, customers and the public at large.</t>
+  </si>
+  <si>
+    <t>How an organization identifies and remediates known vulnerabilities in its environments and products, and how it mitigates potential/undiscovered vulnerabilities</t>
+  </si>
+  <si>
+    <t>Threat Intelligence and Modelling</t>
+  </si>
+  <si>
+    <t>Individuals or individual teams voluntarily take responsibility for security in their areas</t>
+  </si>
+  <si>
+    <t>Security leadership exists in a silo, often focused on compliance</t>
+  </si>
+  <si>
+    <t>Security seen as “compliance problem” or "that team's problem"</t>
+  </si>
+  <si>
+    <t>The organization has a defined risk management strategy and the cybersecurity strategy aligns to it.</t>
+  </si>
+  <si>
+    <t>The organization has policies tailored specifically to its environment and business operations. At a minimum, this includes Business Continuity, Disaster Recovery, Acceptable Use, Information Security, Incident Response and Vendor Management policies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization is aware of privacy laws governing it and the customers it serves. Personally identifiable information (PII) is defined and categorized, and employee responsibilities for handling PII are clearly communicated. There is a clear way for customers, email recipients and website visitors to request their information be removed from the organization's contact databases and other repositories. </t>
+  </si>
+  <si>
+    <t>The organization is aware of the regulatory, industry-specific and voluntary compliance frameworks to which it is subject. There is a defined compliance program and roadmap. Work support compliance and audits is an acknowledged and integrated part of individual and team workload, minimizing unscheduled compliance or audit related work.</t>
+  </si>
+  <si>
+    <t>The organization has defined a vendor management policy and program. Vendors and their products are regularly assessed for risk in line with organizational policy, and their potential impact to business continuity, disaster recovery, information security and incident response are known.</t>
+  </si>
+  <si>
+    <t>The organization has a regular cadence for security awareness and training. Higher risk targets are given additional training tailored to their profile.</t>
+  </si>
+  <si>
+    <t>The organization has an established process for creating identities, providing access to resources, and reviewing access on a regular basis.</t>
+  </si>
+  <si>
+    <t>The organization has or can quickly generate an inventory physical and digital assets.</t>
+  </si>
+  <si>
+    <t>The organization monitors its cloud and on-prem environments, maintaining access, activity and other logs for a defined period of time. In healthier environments, logs do not contain sensitive information and are resistent to tampering.</t>
+  </si>
+  <si>
+    <t>The organizaiton regularly reviews operating systems, applications and cloud services for misconfigurations, updates, or known issues that may allow attackers access to these resources.</t>
+  </si>
+  <si>
+    <t>The organization has a process for escalating, resolving, and reporting on security issues. Designated resources are regularly trained and procedure guides are regularly updated.</t>
+  </si>
+  <si>
+    <t>The organization has a process for when and how to communicate incidents both interally and externally.</t>
+  </si>
+  <si>
+    <t>Is it repeatable?</t>
+  </si>
+  <si>
+    <t>Is it advisory?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -994,21 +828,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1042,13 +862,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1115,27 +928,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="13"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="13"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -1155,8 +947,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,12 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,30 +1167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="81" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1382,191 +1180,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="81" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="81" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,6 +1364,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D46531-2BCD-8A4C-98FE-2BDBD4D5D294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12700"/>
+          <a:ext cx="10058400" cy="5437238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2171,134 +2004,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0A7816-02C6-5949-9C18-EE00DFF7F3D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10486-93A2-2340-B7F9-743A3DC699DD}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="12" customWidth="1"/>
-    <col min="2" max="4" width="35.83203125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="4" width="35.83203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="1" spans="1:4" ht="20" thickBot="1">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="76" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:4" s="49" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="B5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="27" customFormat="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" s="27" customFormat="1" ht="165" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="12" spans="1:4" ht="36" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A7:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2306,649 +2160,544 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0685D2-F268-1F4F-B5A5-77F83E439AF7}">
-  <dimension ref="A1:K24"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2325E-68BF-D848-9064-9003B11B5CC2}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="99.6640625" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="46"/>
-    </row>
-    <row r="6" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="B2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="75" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="81" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="78" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="85" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="102" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" customHeight="1">
+      <c r="A8" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="89" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="89" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="89" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="89" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="90" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="B14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="90" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="91" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="89" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="89" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="29">
-        <v>0</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="29">
-        <v>0</v>
-      </c>
-      <c r="D16" s="29">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="29">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="29">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="29">
-        <v>0</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" customHeight="1">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="29">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0</v>
-      </c>
-      <c r="E22" s="29">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="39"/>
+      <c r="B23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B6:J6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA4F1D-0E45-7041-8661-121DCAB4415D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:8" ht="43" customHeight="1">
+      <c r="C1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="28">
+      <c r="A3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="56">
+      <c r="A4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="84">
+      <c r="A5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="70">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="20" t="s">
+      <c r="B6" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    <row r="7" spans="1:8" ht="56">
+      <c r="A7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="20" t="s">
+    <row r="8" spans="1:8" ht="28">
+      <c r="A8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
-      <c r="B7" s="20" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" ht="28">
+      <c r="A10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="11" spans="1:8" ht="28">
+      <c r="A11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="20" t="s">
+    <row r="12" spans="1:8" ht="56">
+      <c r="A12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="20" t="s">
+    <row r="13" spans="1:8" ht="42">
+      <c r="A13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    <row r="14" spans="1:8" ht="42">
+      <c r="A14" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="20" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="28">
+      <c r="A15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="74"/>
-    </row>
-    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Security Health Model - csage.xlsx
+++ b/Security Health Model - csage.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csage/Documents/GitHub/showmethemoney/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519756F-9845-3B48-AB77-F50526734BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA6DAEB-B5FA-804E-B468-96AFDEC318D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Security Health Model" sheetId="8" r:id="rId1"/>
-    <sheet name="Security Health Model Explained" sheetId="3" r:id="rId2"/>
-    <sheet name="Health Assessment Overview" sheetId="7" r:id="rId3"/>
-    <sheet name="Health Assessment Questions" sheetId="4" r:id="rId4"/>
+    <sheet name="Health Assessment Metrics" sheetId="7" r:id="rId2"/>
+    <sheet name="Health Assessment Questions" sheetId="4" r:id="rId3"/>
+    <sheet name="SHM with Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Organizational Awareness</t>
   </si>
@@ -645,33 +645,15 @@
     <t>IT Ops</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
-    <t>Production/Product</t>
-  </si>
-  <si>
     <t>Government regulations or customer expectations drive security measures</t>
   </si>
   <si>
     <t>Only the teams responsible for security or compliance have a definition of security initiatives</t>
   </si>
   <si>
-    <t>NOTE: Team/Compliance Driven is the initial target area for most SMB organizations. Risk-based requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMB to be targeting that risk-based area.</t>
-  </si>
-  <si>
     <t>Questions or feedback about this model? Ping @carlotasage or csage@pocket-ciso.com. - My heartfelt thanks to my all the security professionals who have given the feedback that has improved this model over time!</t>
   </si>
   <si>
-    <t>Do you do it?</t>
-  </si>
-  <si>
-    <t>Is it documented?</t>
-  </si>
-  <si>
-    <t>Is it scalable?</t>
-  </si>
-  <si>
     <t>Governance</t>
   </si>
   <si>
@@ -735,9 +717,6 @@
     <t>How an organization identifies and remediates known vulnerabilities in its environments and products, and how it mitigates potential/undiscovered vulnerabilities</t>
   </si>
   <si>
-    <t>Threat Intelligence and Modelling</t>
-  </si>
-  <si>
     <t>Individuals or individual teams voluntarily take responsibility for security in their areas</t>
   </si>
   <si>
@@ -747,9 +726,6 @@
     <t>Security seen as “compliance problem” or "that team's problem"</t>
   </si>
   <si>
-    <t>The organization has a defined risk management strategy and the cybersecurity strategy aligns to it.</t>
-  </si>
-  <si>
     <t>The organization has policies tailored specifically to its environment and business operations. At a minimum, this includes Business Continuity, Disaster Recovery, Acceptable Use, Information Security, Incident Response and Vendor Management policies.</t>
   </si>
   <si>
@@ -774,26 +750,70 @@
     <t>The organization monitors its cloud and on-prem environments, maintaining access, activity and other logs for a defined period of time. In healthier environments, logs do not contain sensitive information and are resistent to tampering.</t>
   </si>
   <si>
-    <t>The organizaiton regularly reviews operating systems, applications and cloud services for misconfigurations, updates, or known issues that may allow attackers access to these resources.</t>
-  </si>
-  <si>
-    <t>The organization has a process for escalating, resolving, and reporting on security issues. Designated resources are regularly trained and procedure guides are regularly updated.</t>
-  </si>
-  <si>
     <t>The organization has a process for when and how to communicate incidents both interally and externally.</t>
   </si>
   <si>
-    <t>Is it repeatable?</t>
-  </si>
-  <si>
-    <t>Is it advisory?</t>
+    <t>The organization regularly reviews operating systems, applications and cloud services for misconfigurations, updates, or known issues that may allow attackers access to these resources.</t>
+  </si>
+  <si>
+    <t>The organization has a process for escalating, resolving, and reporting on security issues. Designated resources are regularly trained and procedure guides/playbooks are regularly updated.</t>
+  </si>
+  <si>
+    <t>Talent Care and Growth</t>
+  </si>
+  <si>
+    <t>How the organization ensures its team members stay mentally and emotionally healthy while growing their skillset. A healthy culture is a more secure one.</t>
+  </si>
+  <si>
+    <t>Third Party Code
+&amp; Tool Management</t>
+  </si>
+  <si>
+    <t>Talent Care &amp; Growth</t>
+  </si>
+  <si>
+    <t>Product/
+Service 1</t>
+  </si>
+  <si>
+    <t>Product/
+Service 2</t>
+  </si>
+  <si>
+    <t>The organization has an established process for evaluating third party code and APIs they do not own or control. An inventory of open source code, third party code, and APIs used in the IT environment, production environment or embedded in a software/firmware/hardware product is available or can be quickly generated.</t>
+  </si>
+  <si>
+    <t>Threat Modeling and Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threat Modeling and Intelligence </t>
+  </si>
+  <si>
+    <t>The organization understands its attack surface and actively manages it.</t>
+  </si>
+  <si>
+    <t>Risk Management 
+and Business Enablement</t>
+  </si>
+  <si>
+    <t>The organization has a defined risk management strategy and the cybersecurity strategy aligns to it. The cybersecurity strategy supports the overall organizational mission and strategic initiatives.</t>
+  </si>
+  <si>
+    <t>The organization fosters a healthy culture, offering support for personal and professional development and to prevent employee burn-out.</t>
+  </si>
+  <si>
+    <t>NOTE: Team/Compliance Driven is the initial target level for most SMB organizations. Risk-based requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMB to be targeting that risk-based level.</t>
+  </si>
+  <si>
+    <t>Smaller organizations or organizations just starting their security journey can use the following domains to establish metrixs: rate each domain on a 1-5 scale (see Legend).
+Larger organizations may want to break these domains into subdomains, or map other existing metrics/frameworks into these domains before presenting to non-securty leadership.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -976,6 +996,19 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1167,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1253,9 +1286,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1274,6 +1304,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1343,8 +1376,33 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,14 +1426,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1405,8 +1463,124 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12700"/>
-          <a:ext cx="10058400" cy="5437238"/>
+          <a:off x="152401" y="177800"/>
+          <a:ext cx="10058398" cy="5437238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773F4B5E-09EF-1B43-9C8C-31F2A2928F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10985500" y="800100"/>
+          <a:ext cx="2628900" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83874"/>
+            <a:gd name="adj2" fmla="val -86084"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NOTE: Team/Compliance Driven is the target level for most SMB organizations. Risk-based requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMB to be targeting that level.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90713</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>651342</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F47A7E5-02CF-A240-9DD3-229086B65E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003142" y="317500"/>
+          <a:ext cx="3862629" cy="1805215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,7 +1592,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1804,6 +1978,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>507999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Left Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07192017-B6A2-D04C-AA82-30FA7931EFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9493251" y="63500"/>
+          <a:ext cx="1746250" cy="1428749"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> individual cells to get</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> more insight </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2005,167 +2257,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0A7816-02C6-5949-9C18-EE00DFF7F3D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10486-93A2-2340-B7F9-743A3DC699DD}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2325E-68BF-D848-9064-9003B11B5CC2}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="4" width="35.83203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1">
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="76">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="27" customFormat="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" s="27" customFormat="1" ht="165" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="12" spans="1:4" ht="36" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A7:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2325E-68BF-D848-9064-9003B11B5CC2}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2271,15 +2913,15 @@
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -2288,10 +2930,10 @@
     </row>
     <row r="9" spans="1:9" ht="89" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -2305,10 +2947,10 @@
     </row>
     <row r="10" spans="1:9" ht="90" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="16">
         <v>0</v>
@@ -2322,10 +2964,10 @@
     </row>
     <row r="11" spans="1:9" ht="89" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -2342,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="16">
         <v>0</v>
@@ -2356,11 +2998,11 @@
     </row>
     <row r="13" spans="1:9" ht="89" customHeight="1">
       <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="16">
         <v>0</v>
       </c>
@@ -2371,140 +3013,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="90" customHeight="1">
+    <row r="14" spans="1:9" ht="89" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="89" customHeight="1">
+      <c r="A15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="90" customHeight="1">
+      <c r="A16" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="90" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="90" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="91" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="89" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="89" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" ht="90" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="91" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="89" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="89" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="90" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -2518,10 +3160,10 @@
     </row>
     <row r="23" spans="1:5" ht="90" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="16">
         <v>0</v>
@@ -2532,11 +3174,31 @@
       <c r="E23" s="16">
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" customHeight="1">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -2548,12 +3210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA4F1D-0E45-7041-8661-121DCAB4415D}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2562,27 +3224,21 @@
     <col min="2" max="2" width="65" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43" customHeight="1">
-      <c r="C1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>85</v>
-      </c>
+    <row r="1" spans="1:8" ht="96" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="28"/>
@@ -2592,113 +3248,281 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="28">
-      <c r="A3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
+    <row r="3" spans="1:8" ht="42">
+      <c r="A3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="56">
-      <c r="A4" s="32" t="s">
-        <v>47</v>
+      <c r="A4" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="84">
+      <c r="A5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="70">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="56">
+      <c r="A7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28">
+      <c r="A8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28">
+      <c r="A9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28">
+      <c r="A10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="84">
-      <c r="A5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="70">
-      <c r="A6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="56">
-      <c r="A7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28">
-      <c r="A8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="60" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="28">
-      <c r="A10" s="34" t="s">
+      <c r="B11" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="28">
+      <c r="A12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28">
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="70">
+      <c r="A14" s="33" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28">
-      <c r="A11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="56">
-      <c r="A12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42">
-      <c r="A13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42">
-      <c r="A14" s="61" t="s">
-        <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28">
-      <c r="A15" s="33" t="s">
-        <v>14</v>
+    <row r="15" spans="1:8" ht="56">
+      <c r="A15" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28">
+      <c r="A16" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42">
+      <c r="A17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="42">
+      <c r="A18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10486-93A2-2340-B7F9-743A3DC699DD}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="4" width="35.83203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" thickBot="1">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="27" customFormat="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" s="27" customFormat="1" ht="165" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="12" spans="1:4" ht="36" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A7:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Security Health Model - csage.xlsx
+++ b/Security Health Model - csage.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csage/Documents/GitHub/showmethemoney/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519756F-9845-3B48-AB77-F50526734BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B09082-3C5A-3445-811C-073909843BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Security Health Model" sheetId="8" r:id="rId1"/>
-    <sheet name="Security Health Model Explained" sheetId="3" r:id="rId2"/>
-    <sheet name="Health Assessment Overview" sheetId="7" r:id="rId3"/>
-    <sheet name="Health Assessment Questions" sheetId="4" r:id="rId4"/>
+    <sheet name="Health Assessment Domains" sheetId="9" r:id="rId2"/>
+    <sheet name="Health Assessment Metrics" sheetId="7" r:id="rId3"/>
+    <sheet name="Example Health Assessment" sheetId="10" r:id="rId4"/>
+    <sheet name="Prior SHM with Notes" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -528,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>Organizational Awareness</t>
   </si>
@@ -548,37 +549,10 @@
     <t>Incident Response</t>
   </si>
   <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>Little or no understanding of information security.</t>
-  </si>
-  <si>
-    <t>Information security efforts lack structure and organization. Even if processes are well defined, they are generally poorly documented. Successful efforts are localized and unlikely to be repeatable or scalable.</t>
-  </si>
-  <si>
-    <t>Information security has basic structure, documentation and project management; there is organization-wide oversight/insight even if scalability is an issue. Security likely be driven by compliance/regulation rather than an understanding of risk management.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processes are well-defined, well-documented, repeatable and scalable, incorporating data analytics for insights. Information security is a risk management tool rather than a compliance tool. </t>
-  </si>
-  <si>
-    <t>[Risk-Based] 4</t>
-  </si>
-  <si>
-    <t>Information Security has the program maturity and technology needed to provide near real-time insights to executive team and business units. Focus is on process optimization for entire organization, not just security.</t>
-  </si>
-  <si>
-    <t>[Risk-Based, Optimized] 5</t>
-  </si>
-  <si>
     <t>Communication Strategy</t>
   </si>
   <si>
     <t>Asset Management</t>
-  </si>
-  <si>
-    <t>Emerging Threats &amp; Vulnerability Mgmt</t>
   </si>
   <si>
     <t>Detection</t>
@@ -636,42 +610,18 @@
     <t>Identity &amp; Access Management</t>
   </si>
   <si>
-    <t>[Grassroots] 2</t>
-  </si>
-  <si>
-    <t>[Team or Compliance-driven] 3</t>
-  </si>
-  <si>
     <t>IT Ops</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
-    <t>Production/Product</t>
-  </si>
-  <si>
     <t>Government regulations or customer expectations drive security measures</t>
   </si>
   <si>
     <t>Only the teams responsible for security or compliance have a definition of security initiatives</t>
   </si>
   <si>
-    <t>NOTE: Team/Compliance Driven is the initial target area for most SMB organizations. Risk-based requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMB to be targeting that risk-based area.</t>
-  </si>
-  <si>
     <t>Questions or feedback about this model? Ping @carlotasage or csage@pocket-ciso.com. - My heartfelt thanks to my all the security professionals who have given the feedback that has improved this model over time!</t>
   </si>
   <si>
-    <t>Do you do it?</t>
-  </si>
-  <si>
-    <t>Is it documented?</t>
-  </si>
-  <si>
-    <t>Is it scalable?</t>
-  </si>
-  <si>
     <t>Governance</t>
   </si>
   <si>
@@ -735,9 +685,6 @@
     <t>How an organization identifies and remediates known vulnerabilities in its environments and products, and how it mitigates potential/undiscovered vulnerabilities</t>
   </si>
   <si>
-    <t>Threat Intelligence and Modelling</t>
-  </si>
-  <si>
     <t>Individuals or individual teams voluntarily take responsibility for security in their areas</t>
   </si>
   <si>
@@ -747,9 +694,6 @@
     <t>Security seen as “compliance problem” or "that team's problem"</t>
   </si>
   <si>
-    <t>The organization has a defined risk management strategy and the cybersecurity strategy aligns to it.</t>
-  </si>
-  <si>
     <t>The organization has policies tailored specifically to its environment and business operations. At a minimum, this includes Business Continuity, Disaster Recovery, Acceptable Use, Information Security, Incident Response and Vendor Management policies.</t>
   </si>
   <si>
@@ -768,32 +712,208 @@
     <t>The organization has an established process for creating identities, providing access to resources, and reviewing access on a regular basis.</t>
   </si>
   <si>
-    <t>The organization has or can quickly generate an inventory physical and digital assets.</t>
-  </si>
-  <si>
     <t>The organization monitors its cloud and on-prem environments, maintaining access, activity and other logs for a defined period of time. In healthier environments, logs do not contain sensitive information and are resistent to tampering.</t>
   </si>
   <si>
-    <t>The organizaiton regularly reviews operating systems, applications and cloud services for misconfigurations, updates, or known issues that may allow attackers access to these resources.</t>
-  </si>
-  <si>
-    <t>The organization has a process for escalating, resolving, and reporting on security issues. Designated resources are regularly trained and procedure guides are regularly updated.</t>
-  </si>
-  <si>
     <t>The organization has a process for when and how to communicate incidents both interally and externally.</t>
   </si>
   <si>
-    <t>Is it repeatable?</t>
-  </si>
-  <si>
-    <t>Is it advisory?</t>
+    <t>The organization regularly reviews operating systems, applications and cloud services for misconfigurations, updates, or known issues that may allow attackers access to these resources.</t>
+  </si>
+  <si>
+    <t>The organization has a process for escalating, resolving, and reporting on security issues. Designated resources are regularly trained and procedure guides/playbooks are regularly updated.</t>
+  </si>
+  <si>
+    <t>Talent Care and Growth</t>
+  </si>
+  <si>
+    <t>How the organization ensures its team members stay mentally and emotionally healthy while growing their skillset. A healthy culture is a more secure one.</t>
+  </si>
+  <si>
+    <t>Product/
+Service 1</t>
+  </si>
+  <si>
+    <t>Product/
+Service 2</t>
+  </si>
+  <si>
+    <t>The organization has an established process for evaluating third party code and APIs they do not own or control. An inventory of open source code, third party code, and APIs used in the IT environment, production environment or embedded in a software/firmware/hardware product is available or can be quickly generated.</t>
+  </si>
+  <si>
+    <t>Threat Modeling and Intelligence</t>
+  </si>
+  <si>
+    <t>The organization understands its attack surface and actively manages it.</t>
+  </si>
+  <si>
+    <t>The organization has a defined risk management strategy and the cybersecurity strategy aligns to it. The cybersecurity strategy supports the overall organizational mission and strategic initiatives.</t>
+  </si>
+  <si>
+    <t>The organization fosters a healthy culture, offering support for personal and professional development and to prevent employee burn-out.</t>
+  </si>
+  <si>
+    <t>NOTE: Team/Compliance Driven is the initial target level for most SMB organizations. Risk-based requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMB to be targeting that risk-based level.</t>
+  </si>
+  <si>
+    <t>Smaller organizations or organizations just starting their security journey can use the following domains to establish metrixs: rate each domain on a 1-5 scale (see Legend). Note that I only expect an organization without a full security team to raech a 3; 4 and 5 require significant investment in security tooling.
+Larger organizations may want to break these domains into subdomains, or map other existing metrics/frameworks into these domains before presenting to non-security leadership.</t>
+  </si>
+  <si>
+    <t>LEGEND TRANSLATION</t>
+  </si>
+  <si>
+    <t>Physical Security</t>
+  </si>
+  <si>
+    <t>3
+[Team or Compliance-driven]</t>
+  </si>
+  <si>
+    <t>4
+[Risk-Based]</t>
+  </si>
+  <si>
+    <t>5
+[Risk-Based, Optimized]</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Domain Description</t>
+  </si>
+  <si>
+    <t>High Level Assessment</t>
+  </si>
+  <si>
+    <t>The organization has or can quickly generate an inventory of physical and digital assets. Digital assets are classified and handled in accordance with data classification, handling and privacy policies.</t>
+  </si>
+  <si>
+    <t>The organization has a documented and shared disaster recovery policy. Physical locations are assessed and audited yearly by a third party or security professional.</t>
+  </si>
+  <si>
+    <t>How an organization protects physical locations and high value personnel.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">We do this and it's repeatable: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Information security efforts lack structure and organization. Even if processes are well defined, they are generally poorly documented. Successful efforts are localized and unlikely to be repeatable or scalable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">We sometimes/can do this: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Information security basics are not performed, or are performed inconsistently.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>It's repeatable AND documented:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Information security has basic structure, documentation and project management; there is organization-wide oversight/insight even if scalability is an issue. Security likely be driven by compliance/regulation rather than an understanding of risk management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It's repeatable, documented AND scalable:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Processes are well-defined, well-documented, repeatable and scalable, incorporating data analytics for insights. Information security is a risk management tool rather than a compliance tool. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It operates at scale and gives immediate, actionable insights: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Information Security has the program maturity and technology needed to provide near real-time insights to executive team and business units. Focus is on process optimization for entire organization, not just security.</t>
+    </r>
+  </si>
+  <si>
+    <t>1
+[Grassroots]</t>
+  </si>
+  <si>
+    <t>2
+[Evolving]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -859,27 +979,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -907,30 +1006,9 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="13"/>
-      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -960,12 +1038,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -973,14 +1045,41 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,8 +1164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1088,17 +1193,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1136,26 +1230,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1167,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1177,104 +1251,148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="81" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="81" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1285,73 +1403,219 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC32214"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1370,20 +1634,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1638</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D46531-2BCD-8A4C-98FE-2BDBD4D5D294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F21DFA-829F-E343-8FD2-FC7CC2E6864A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,8 +1669,164 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12700"/>
-          <a:ext cx="10058400" cy="5437238"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="6311152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773F4B5E-09EF-1B43-9C8C-31F2A2928F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="1905000"/>
+          <a:ext cx="2628900" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -172280"/>
+            <a:gd name="adj2" fmla="val -102751"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C32214">
+            <a:alpha val="74902"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NOTE: Team/Compliance Driven is the target level for most SMB organizations. The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Risk-based level requires heavy investment in tooling that most SMBs cannot afford; I only expect Enterprise and high value SMBs to be targeting that level.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7988300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908AC261-AC67-E147-BF13-E457AA46BD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7988300" cy="5613400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,7 +1838,432 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3265715</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B22A1EA-698F-3D40-9F53-130ABA1DBC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="9017000" cy="4103037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24889</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F9972F-AECE-5C42-B827-BC0420DA8BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16056428" y="760770"/>
+          <a:ext cx="9205175" cy="4612898"/>
+          <a:chOff x="18275084" y="753390"/>
+          <a:chExt cx="9022517" cy="5661186"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67680BD-5FF6-5541-AAD9-0E782BAE2F7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18275084" y="753390"/>
+            <a:ext cx="9022517" cy="5661186"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5F7DD2-BAB2-6A41-BFB8-125C710CD23A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19695763" y="1614406"/>
+            <a:ext cx="2152543" cy="3293390"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="9600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="9600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C03198F-0512-2B4B-8AC6-FCB9F54064DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22235762" y="1614406"/>
+            <a:ext cx="2152543" cy="3293390"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="9600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="9600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0BDFE2-FCAE-C042-930C-20603D5EFE95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="24775762" y="1614406"/>
+            <a:ext cx="2152543" cy="3293390"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="9600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="9600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344408</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>258306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>289819</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>301356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C0A894-1260-0D40-A8ED-A383BD36668D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9815594" y="4326611"/>
+          <a:ext cx="7307106" cy="3293389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>258304</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>193729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279832</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1140848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Folded Corner 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718D28AC-8149-5E4D-95D0-6D991DB12F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9729490" y="193729"/>
+          <a:ext cx="6565257" cy="3745424"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>This is how a typical Health Assessment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> for a sub-250 person organization without a formal security or compliance program might look. This can be used as a set of metrics to report to leadership; mapped over time, this can demonstrate the health of your security program in response to the changes made in the organization and environment.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1804,6 +2649,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>507999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Left Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07192017-B6A2-D04C-AA82-30FA7931EFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9493251" y="63500"/>
+          <a:ext cx="1746250" cy="1428749"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> individual cells to get</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> more insight </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2005,148 +2928,1668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0A7816-02C6-5949-9C18-EE00DFF7F3D7}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="13" width="10.83203125" style="26"/>
+    <col min="14" max="16384" width="10.83203125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB64EFA6-4F93-F841-AFE7-EAE1BA9627DF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="105.1640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2325E-68BF-D848-9064-9003B11B5CC2}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.5" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+    </row>
+    <row r="11" spans="1:18" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+    </row>
+    <row r="12" spans="1:18" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+    </row>
+    <row r="13" spans="1:18" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+    </row>
+    <row r="17" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J10:R10"/>
+    <mergeCell ref="J11:R11"/>
+    <mergeCell ref="J12:R12"/>
+    <mergeCell ref="D1:F5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="H7:R7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8:F15">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:F24">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5D5D0A-7B5D-9845-B5A7-A27AD4F9083F}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="83.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="H2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="16">
+        <v>3</v>
+      </c>
+      <c r="L9" s="16">
+        <v>3</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="22">
+        <v>2</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="89" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="90" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="90" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:F10">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M10">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10486-93A2-2340-B7F9-743A3DC699DD}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="4" width="35.83203125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1">
+    <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57">
+        <v>21</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57">
+      <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="76">
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57">
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:4" s="14" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="57" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="27" customFormat="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" s="27" customFormat="1" ht="165" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="12" spans="1:4" ht="36" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2158,547 +4601,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2325E-68BF-D848-9064-9003B11B5CC2}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.1640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17">
-      <c r="A1" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="81" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" ht="78" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" ht="85" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" ht="102" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="89" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="89" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="89" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="89" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" ht="90" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" ht="90" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="91" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="89" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="89" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="90" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="90" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA4F1D-0E45-7041-8661-121DCAB4415D}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="65" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="43" customHeight="1">
-      <c r="C1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="28">
-      <c r="A3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="56">
-      <c r="A4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="84">
-      <c r="A5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="70">
-      <c r="A6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="56">
-      <c r="A7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28">
-      <c r="A8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="28">
-      <c r="A10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28">
-      <c r="A11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="56">
-      <c r="A12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42">
-      <c r="A13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42">
-      <c r="A14" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28">
-      <c r="A15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>